--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruslanr/PycharmProjects/WAPI_holidays/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CAB22-4337-9443-80F5-CEDC80F0C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F47A5C-D7A5-354C-91D3-50779645BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="2560" windowWidth="17820" windowHeight="17240" activeTab="2" xr2:uid="{9FC7BD52-9B45-3543-92F4-D0FD5F509FEA}"/>
+    <workbookView xWindow="16740" yWindow="2560" windowWidth="17820" windowHeight="17240" xr2:uid="{9FC7BD52-9B45-3543-92F4-D0FD5F509FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -183,18 +183,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -558,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C710C37C-6F55-154C-9161-D0C0AC019161}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,155 +567,185 @@
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -743,7 +771,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
@@ -751,7 +779,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B3" t="s">
@@ -767,7 +795,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
@@ -775,7 +803,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B6" t="s">
@@ -791,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CA24B1-3880-1F45-A5D4-DB31FDCF6C5C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruslanr/PycharmProjects/WAPI_holidays/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F47A5C-D7A5-354C-91D3-50779645BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A43246A-11BE-9045-9C59-830B84D0169F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="2560" windowWidth="17820" windowHeight="17240" xr2:uid="{9FC7BD52-9B45-3543-92F4-D0FD5F509FEA}"/>
+    <workbookView xWindow="16740" yWindow="2560" windowWidth="17820" windowHeight="17240" activeTab="2" xr2:uid="{9FC7BD52-9B45-3543-92F4-D0FD5F509FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>ES</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>mu@wapi.com</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C710C37C-6F55-154C-9161-D0C0AC019161}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -817,10 +820,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CA24B1-3880-1F45-A5D4-DB31FDCF6C5C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,6 +836,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{FD289154-5C89-4D45-8F02-D072B65AF1EB}"/>
